--- a/medicine/Psychotrope/Alghero_spumante_rosso/Alghero_spumante_rosso.xlsx
+++ b/medicine/Psychotrope/Alghero_spumante_rosso/Alghero_spumante_rosso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Alghero spumante rosso est un vin effervescent de couleur rouge italien de la région Sardaigne doté d'une appellation DOC depuis le 19 août 1995. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Sassari dans les communes de Alghero, Olmedo, Ossi, Tissi, Usini, Uri, Ittiri ainsi qu'en partie dans la commune de Sassari.
 Voir aussi l’article Alghero rosso.
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis avec des reflets violacés, fin perlage
 odeur : caractéristique, intense,
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,7 +650,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponibles </t>
